--- a/results/mp/deberta/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.35/avg_0.003_scores.xlsx
@@ -109,10 +109,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
@@ -1267,25 +1267,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6578947368421053</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L22">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N22">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1293,25 +1293,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6521739130434783</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1423,25 +1423,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5410334346504559</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L28">
         <v>178</v>
       </c>
       <c r="M28">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="10:17">
